--- a/soberano/test_cases/process_modify_test_cases.xlsx
+++ b/soberano/test_cases/process_modify_test_cases.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t xml:space="preserve">TC Number</t>
   </si>
@@ -112,22 +112,10 @@
     <t xml:space="preserve">User17 is allowed to modify process</t>
   </si>
   <si>
-    <t xml:space="preserve">User18 is NOT allowed to modify process</t>
+    <t xml:space="preserve">User19 is allowed to modify process</t>
   </si>
   <si>
     <t xml:space="preserve">mpr10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User19 is allowed to modify process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User20 is NOT allowed to modify process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mpr11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User21 is NOT allowed to modify process</t>
   </si>
   <si>
     <t xml:space="preserve">User1 tries to modify another process with the same name and fails</t>
@@ -303,10 +291,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ33"/>
+  <dimension ref="A1:AMJ30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A20" activeCellId="0" sqref="20:20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -614,7 +602,7 @@
         <v>31</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>11.444</v>
+        <v>11.666</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -624,25 +612,13 @@
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>12.555</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="D22" s="2" t="n">
-        <v>12.555</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,13 +626,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="2" t="n">
-        <v>11.666</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,7 +634,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -672,7 +642,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,7 +650,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -688,7 +658,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -696,7 +666,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -704,7 +674,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -712,31 +682,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
